--- a/data/fact_data/Beed/beed_sec_Feb_19.xlsx
+++ b/data/fact_data/Beed/beed_sec_Feb_19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/Beed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFB4FC0-E396-294B-8462-7F7876B80FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7A2945-6EE4-8B43-B527-F5C5541CF28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="beed_Arun_Feb_19" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="87">
   <si>
     <t>Betadine Sol. 500ml              5%</t>
   </si>
@@ -263,9 +263,6 @@
     <t>TOTAL PHYSIOMER :</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>region_name</t>
   </si>
   <si>
@@ -281,12 +278,6 @@
     <t>Total_price</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Vankatesh</t>
   </si>
   <si>
@@ -296,10 +287,19 @@
     <t>Feb</t>
   </si>
   <si>
-    <t>Anil</t>
+    <t>product_name</t>
   </si>
   <si>
-    <t>product_name</t>
+    <t>Anil Kumar</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>quantity</t>
   </si>
 </sst>
 </file>
@@ -1874,7 +1874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
@@ -1888,13 +1890,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>61</v>
@@ -1903,16 +1905,16 @@
         <v>62</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="26" t="s">
-        <v>79</v>
-      </c>
       <c r="H1" s="26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1920,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>63</v>
@@ -1939,7 +1941,7 @@
         <v>405</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I2" s="28">
         <v>2019</v>
@@ -1950,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>63</v>
@@ -1969,7 +1971,7 @@
         <v>711</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I3" s="28">
         <v>2019</v>
@@ -1980,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>63</v>
@@ -1999,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I4" s="28">
         <v>2019</v>
@@ -2010,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>63</v>
@@ -2029,7 +2031,7 @@
         <v>32336</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I5" s="28">
         <v>2019</v>
@@ -2040,7 +2042,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>63</v>
@@ -2059,7 +2061,7 @@
         <v>1690</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I6" s="28">
         <v>2019</v>
@@ -2070,7 +2072,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>63</v>
@@ -2089,7 +2091,7 @@
         <v>976</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I7" s="28">
         <v>2019</v>
@@ -2100,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>63</v>
@@ -2119,7 +2121,7 @@
         <v>880</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I8" s="28">
         <v>2019</v>
@@ -2130,7 +2132,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>63</v>
@@ -2149,7 +2151,7 @@
         <v>1710</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I9" s="28">
         <v>2019</v>
@@ -2160,7 +2162,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>63</v>
@@ -2175,7 +2177,7 @@
         <v>2205</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I10" s="28">
         <v>2019</v>
@@ -2186,7 +2188,7 @@
         <v>54</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>63</v>
@@ -2201,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I11" s="28">
         <v>2019</v>
@@ -2212,7 +2214,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>63</v>
@@ -2227,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I12" s="28">
         <v>2019</v>
@@ -2238,7 +2240,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>63</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I13" s="28">
         <v>2019</v>
@@ -2268,7 +2270,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>63</v>
@@ -2287,7 +2289,7 @@
         <v>33800</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I14" s="28">
         <v>2019</v>
@@ -2298,7 +2300,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>63</v>
@@ -2317,7 +2319,7 @@
         <v>784</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I15" s="28">
         <v>2019</v>
@@ -2328,7 +2330,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>63</v>
@@ -2340,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I16" s="28">
         <v>2019</v>
@@ -2351,7 +2353,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>63</v>
@@ -2370,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I17" s="28">
         <v>2019</v>
@@ -2381,7 +2383,7 @@
         <v>44</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>63</v>
@@ -2400,7 +2402,7 @@
         <v>25235</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I18" s="28">
         <v>2019</v>
@@ -2411,7 +2413,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>63</v>
@@ -2426,7 +2428,7 @@
         <v>17934</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I19" s="28">
         <v>2019</v>
@@ -2437,7 +2439,7 @@
         <v>45</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>63</v>
@@ -2452,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I20" s="28">
         <v>2019</v>
@@ -2463,7 +2465,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>63</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I21" s="28">
         <v>2019</v>
@@ -2493,7 +2495,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>63</v>
@@ -2505,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I22" s="28">
         <v>2019</v>
@@ -2516,7 +2518,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>63</v>
@@ -2535,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I23" s="28">
         <v>2019</v>
@@ -2546,7 +2548,7 @@
         <v>52</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>63</v>
@@ -2565,7 +2567,7 @@
         <v>544</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I24" s="28">
         <v>2019</v>
@@ -2576,7 +2578,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>63</v>
@@ -2595,7 +2597,7 @@
         <v>240</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I25" s="28">
         <v>2019</v>
@@ -2606,7 +2608,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>63</v>
@@ -2625,7 +2627,7 @@
         <v>3360</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I26" s="28">
         <v>2019</v>
@@ -2636,7 +2638,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>63</v>
@@ -2651,7 +2653,7 @@
         <v>7470</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I27" s="28">
         <v>2019</v>
@@ -2662,7 +2664,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>63</v>
@@ -2677,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I28" s="28">
         <v>2019</v>
@@ -2688,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>63</v>
@@ -2707,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I29" s="28">
         <v>2019</v>
@@ -2718,7 +2720,7 @@
         <v>57</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>63</v>
@@ -2737,7 +2739,7 @@
         <v>807</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I30" s="28">
         <v>2019</v>
@@ -2748,7 +2750,7 @@
         <v>60</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>63</v>
@@ -2767,7 +2769,7 @@
         <v>1266</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I31" s="28">
         <v>2019</v>
@@ -2778,7 +2780,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>63</v>
@@ -2797,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I32" s="28">
         <v>2019</v>
@@ -2808,7 +2810,7 @@
         <v>59</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>63</v>
@@ -2827,7 +2829,7 @@
         <v>3460</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I33" s="28">
         <v>2019</v>
@@ -2838,7 +2840,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>63</v>
@@ -2857,7 +2859,7 @@
         <v>1726</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I34" s="28">
         <v>2019</v>
@@ -2868,7 +2870,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>63</v>
@@ -2880,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I35" s="28">
         <v>2019</v>
@@ -2891,7 +2893,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>63</v>
@@ -2910,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I36" s="28">
         <v>2019</v>
@@ -2921,7 +2923,7 @@
         <v>16</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>63</v>
@@ -2940,7 +2942,7 @@
         <v>4101</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I37" s="28">
         <v>2019</v>
@@ -2951,7 +2953,7 @@
         <v>17</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>63</v>
@@ -2970,7 +2972,7 @@
         <v>12415</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I38" s="28">
         <v>2019</v>
@@ -2981,7 +2983,7 @@
         <v>24</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>63</v>
@@ -3000,7 +3002,7 @@
         <v>168</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I39" s="28">
         <v>2019</v>
@@ -3011,7 +3013,7 @@
         <v>18</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>63</v>
@@ -3030,7 +3032,7 @@
         <v>27027</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I40" s="28">
         <v>2019</v>
@@ -3041,7 +3043,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>63</v>
@@ -3060,7 +3062,7 @@
         <v>2716</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I41" s="28">
         <v>2019</v>
@@ -3071,7 +3073,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>63</v>
@@ -3090,7 +3092,7 @@
         <v>3810</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I42" s="28">
         <v>2019</v>
@@ -3101,7 +3103,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="25" t="s">
         <v>63</v>
@@ -3120,7 +3122,7 @@
         <v>1184</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I43" s="28">
         <v>2019</v>
@@ -3131,7 +3133,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="25" t="s">
         <v>63</v>
@@ -3150,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I44" s="28">
         <v>2019</v>
@@ -3161,7 +3163,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>63</v>
@@ -3173,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I45" s="28">
         <v>2019</v>
@@ -3184,7 +3186,7 @@
         <v>47</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="25" t="s">
         <v>63</v>
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I46" s="28">
         <v>2019</v>
@@ -3207,7 +3209,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="25" t="s">
         <v>63</v>
@@ -3226,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I47" s="28">
         <v>2019</v>
@@ -3237,7 +3239,7 @@
         <v>21</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>63</v>
@@ -3256,7 +3258,7 @@
         <v>157</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="28">
         <v>2019</v>
@@ -3267,7 +3269,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>63</v>
@@ -3286,7 +3288,7 @@
         <v>223</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I49" s="28">
         <v>2019</v>
@@ -3297,7 +3299,7 @@
         <v>38</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="25" t="s">
         <v>63</v>
@@ -3309,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I50" s="28">
         <v>2019</v>
@@ -3320,7 +3322,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="25" t="s">
         <v>63</v>
@@ -3339,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I51" s="28">
         <v>2019</v>
@@ -3350,7 +3352,7 @@
         <v>39</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="25" t="s">
         <v>63</v>
@@ -3363,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I52" s="28">
         <v>2019</v>
@@ -3374,7 +3376,7 @@
         <v>25</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="25" t="s">
         <v>63</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I53" s="28">
         <v>2019</v>
@@ -3404,7 +3406,7 @@
         <v>41</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="25" t="s">
         <v>63</v>
@@ -3417,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I54" s="28">
         <v>2019</v>
@@ -3428,7 +3430,7 @@
         <v>26</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="25" t="s">
         <v>63</v>
@@ -3447,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I55" s="28">
         <v>2019</v>
@@ -3458,7 +3460,7 @@
         <v>40</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="25" t="s">
         <v>63</v>
@@ -3471,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I56" s="28">
         <v>2019</v>
@@ -3482,7 +3484,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>63</v>
@@ -3497,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I57" s="28">
         <v>2019</v>
@@ -3508,7 +3510,7 @@
         <v>65</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="25" t="s">
         <v>63</v>
@@ -3523,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I58" s="28">
         <v>2019</v>
@@ -3534,7 +3536,7 @@
         <v>66</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="25" t="s">
         <v>63</v>
@@ -3549,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I59" s="28">
         <v>2019</v>
@@ -3560,7 +3562,7 @@
         <v>67</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="25" t="s">
         <v>63</v>
@@ -3575,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I60" s="28">
         <v>2019</v>
@@ -3586,7 +3588,7 @@
         <v>68</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="25" t="s">
         <v>63</v>
@@ -3601,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I61" s="28">
         <v>2019</v>
@@ -3612,7 +3614,7 @@
         <v>69</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="25" t="s">
         <v>63</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I62" s="28">
         <v>2019</v>
@@ -3638,7 +3640,7 @@
         <v>70</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="25" t="s">
         <v>63</v>
@@ -3653,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I63" s="28">
         <v>2019</v>
@@ -3664,7 +3666,7 @@
         <v>71</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>63</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I64" s="28">
         <v>2019</v>
@@ -3690,7 +3692,7 @@
         <v>72</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>63</v>
@@ -3705,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I65" s="28">
         <v>2019</v>
@@ -3716,7 +3718,7 @@
         <v>73</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="25" t="s">
         <v>63</v>
@@ -3728,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I66" s="28">
         <v>2019</v>
@@ -3739,7 +3741,7 @@
         <v>29</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="25" t="s">
         <v>63</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I67" s="28">
         <v>2019</v>
@@ -3769,7 +3771,7 @@
         <v>35</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>63</v>
@@ -3784,7 +3786,7 @@
         <v>2415</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I68" s="28">
         <v>2019</v>
@@ -3795,7 +3797,7 @@
         <v>51</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="25" t="s">
         <v>63</v>
@@ -3810,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I69" s="28">
         <v>2019</v>
@@ -3821,7 +3823,7 @@
         <v>53</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="25" t="s">
         <v>63</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I70" s="28">
         <v>2019</v>
@@ -3851,7 +3853,7 @@
         <v>42</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="25" t="s">
         <v>63</v>
@@ -3861,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I71" s="28">
         <v>2019</v>
@@ -3872,7 +3874,7 @@
         <v>43</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="25" t="s">
         <v>63</v>
@@ -3888,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I72" s="28">
         <v>2019</v>
@@ -3918,7 +3920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33057766-FCC4-894D-A797-1D4C1BE05849}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -3930,13 +3934,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>61</v>
@@ -3945,16 +3949,16 @@
         <v>62</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="26" t="s">
-        <v>79</v>
-      </c>
       <c r="H1" s="26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3962,10 +3966,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" s="3">
         <v>13</v>
@@ -3981,7 +3985,7 @@
         <v>1755</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I2" s="28">
         <v>2019</v>
@@ -3992,10 +3996,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4007,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I3" s="28">
         <v>2019</v>
@@ -4018,10 +4022,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D4" s="3">
         <v>92</v>
@@ -4037,7 +4041,7 @@
         <v>8372</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I4" s="28">
         <v>2019</v>
@@ -4048,10 +4052,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -4063,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I5" s="28">
         <v>2019</v>
@@ -4074,10 +4078,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D6" s="3">
         <v>15</v>
@@ -4093,7 +4097,7 @@
         <v>1950</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I6" s="28">
         <v>2019</v>
@@ -4104,10 +4108,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -4119,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I7" s="28">
         <v>2019</v>
@@ -4130,10 +4134,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" s="3">
         <v>27</v>
@@ -4149,7 +4153,7 @@
         <v>2376</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I8" s="28">
         <v>2019</v>
@@ -4160,10 +4164,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D9" s="3">
         <v>90</v>
@@ -4179,7 +4183,7 @@
         <v>5130</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I9" s="28">
         <v>2019</v>
@@ -4190,10 +4194,10 @@
         <v>30</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -4205,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I10" s="28">
         <v>2019</v>
@@ -4216,10 +4220,10 @@
         <v>54</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -4231,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I11" s="28">
         <v>2019</v>
@@ -4242,10 +4246,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -4261,7 +4265,7 @@
         <v>223</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I12" s="28">
         <v>2019</v>
@@ -4272,10 +4276,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D13" s="3">
         <v>374</v>
@@ -4291,7 +4295,7 @@
         <v>22814</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I13" s="28">
         <v>2019</v>
@@ -4302,10 +4306,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D14" s="3">
         <v>31</v>
@@ -4321,7 +4325,7 @@
         <v>3224</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I14" s="28">
         <v>2019</v>
@@ -4332,10 +4336,10 @@
         <v>55</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -4347,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I15" s="28">
         <v>2019</v>
@@ -4358,10 +4362,10 @@
         <v>31</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -4370,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I16" s="28">
         <v>2019</v>
@@ -4381,10 +4385,10 @@
         <v>32</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D17" s="3">
         <v>401</v>
@@ -4400,7 +4404,7 @@
         <v>28070</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I17" s="28">
         <v>2019</v>
@@ -4411,10 +4415,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D18" s="3">
         <v>461</v>
@@ -4430,7 +4434,7 @@
         <v>22589</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I18" s="28">
         <v>2019</v>
@@ -4441,10 +4445,10 @@
         <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -4456,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I19" s="28">
         <v>2019</v>
@@ -4467,10 +4471,10 @@
         <v>45</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -4482,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I20" s="28">
         <v>2019</v>
@@ -4493,10 +4497,10 @@
         <v>56</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D21" s="3">
         <v>6</v>
@@ -4512,7 +4516,7 @@
         <v>3714</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I21" s="28">
         <v>2019</v>
@@ -4523,10 +4527,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -4535,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I22" s="28">
         <v>2019</v>
@@ -4546,10 +4550,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D23" s="3">
         <v>2</v>
@@ -4565,7 +4569,7 @@
         <v>1276</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I23" s="28">
         <v>2019</v>
@@ -4576,10 +4580,10 @@
         <v>52</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -4595,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I24" s="28">
         <v>2019</v>
@@ -4606,10 +4610,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D25" s="3">
         <v>24</v>
@@ -4625,7 +4629,7 @@
         <v>5760</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I25" s="28">
         <v>2019</v>
@@ -4636,10 +4640,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D26" s="3">
         <v>15</v>
@@ -4655,7 +4659,7 @@
         <v>7200</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I26" s="28">
         <v>2019</v>
@@ -4666,10 +4670,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -4681,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I27" s="28">
         <v>2019</v>
@@ -4692,10 +4696,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -4707,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I28" s="28">
         <v>2019</v>
@@ -4718,10 +4722,10 @@
         <v>23</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -4737,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I29" s="28">
         <v>2019</v>
@@ -4748,10 +4752,10 @@
         <v>57</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
@@ -4767,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I30" s="28">
         <v>2019</v>
@@ -4778,10 +4782,10 @@
         <v>60</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -4793,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I31" s="28">
         <v>2019</v>
@@ -4804,10 +4808,10 @@
         <v>58</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
@@ -4823,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I32" s="28">
         <v>2019</v>
@@ -4834,10 +4838,10 @@
         <v>59</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -4853,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I33" s="28">
         <v>2019</v>
@@ -4864,10 +4868,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -4883,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I34" s="28">
         <v>2019</v>
@@ -4894,10 +4898,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -4906,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I35" s="28">
         <v>2019</v>
@@ -4917,10 +4921,10 @@
         <v>15</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D36" s="3">
         <v>2</v>
@@ -4936,7 +4940,7 @@
         <v>2272</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I36" s="28">
         <v>2019</v>
@@ -4947,10 +4951,10 @@
         <v>16</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D37" s="3">
         <v>2</v>
@@ -4966,7 +4970,7 @@
         <v>2734</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I37" s="28">
         <v>2019</v>
@@ -4977,10 +4981,10 @@
         <v>17</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
@@ -4996,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I38" s="28">
         <v>2019</v>
@@ -5007,10 +5011,10 @@
         <v>24</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D39" s="3">
         <v>2</v>
@@ -5026,7 +5030,7 @@
         <v>336</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I39" s="28">
         <v>2019</v>
@@ -5037,10 +5041,10 @@
         <v>18</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
@@ -5056,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I40" s="28">
         <v>2019</v>
@@ -5067,10 +5071,10 @@
         <v>19</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
@@ -5086,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I41" s="28">
         <v>2019</v>
@@ -5097,10 +5101,10 @@
         <v>48</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -5116,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I42" s="28">
         <v>2019</v>
@@ -5127,10 +5131,10 @@
         <v>49</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
@@ -5146,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I43" s="28">
         <v>2019</v>
@@ -5157,10 +5161,10 @@
         <v>50</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -5176,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I44" s="28">
         <v>2019</v>
@@ -5187,10 +5191,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -5199,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I45" s="28">
         <v>2019</v>
@@ -5210,10 +5214,10 @@
         <v>47</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -5222,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I46" s="28">
         <v>2019</v>
@@ -5233,10 +5237,10 @@
         <v>20</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D47" s="3">
         <v>14</v>
@@ -5252,7 +5256,7 @@
         <v>13776</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I47" s="28">
         <v>2019</v>
@@ -5263,10 +5267,10 @@
         <v>21</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D48" s="3">
         <v>8</v>
@@ -5282,7 +5286,7 @@
         <v>1256</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="28">
         <v>2019</v>
@@ -5293,10 +5297,10 @@
         <v>22</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
@@ -5312,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I49" s="28">
         <v>2019</v>
@@ -5323,10 +5327,10 @@
         <v>38</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -5335,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I50" s="28">
         <v>2019</v>
@@ -5346,10 +5350,10 @@
         <v>34</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D51" s="3">
         <v>7</v>
@@ -5365,7 +5369,7 @@
         <v>3388</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I51" s="28">
         <v>2019</v>
@@ -5376,10 +5380,10 @@
         <v>39</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -5389,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I52" s="28">
         <v>2019</v>
@@ -5400,10 +5404,10 @@
         <v>25</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D53" s="3">
         <v>2</v>
@@ -5419,7 +5423,7 @@
         <v>1538</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I53" s="28">
         <v>2019</v>
@@ -5430,10 +5434,10 @@
         <v>41</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -5443,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I54" s="28">
         <v>2019</v>
@@ -5454,10 +5458,10 @@
         <v>26</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D55" s="3">
         <v>7</v>
@@ -5473,7 +5477,7 @@
         <v>1085</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I55" s="28">
         <v>2019</v>
@@ -5484,10 +5488,10 @@
         <v>40</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -5497,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I56" s="28">
         <v>2019</v>
@@ -5508,10 +5512,10 @@
         <v>64</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -5523,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I57" s="28">
         <v>2019</v>
@@ -5534,10 +5538,10 @@
         <v>65</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -5549,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I58" s="28">
         <v>2019</v>
@@ -5560,10 +5564,10 @@
         <v>66</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -5575,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I59" s="28">
         <v>2019</v>
@@ -5586,10 +5590,10 @@
         <v>67</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -5601,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I60" s="28">
         <v>2019</v>
@@ -5612,10 +5616,10 @@
         <v>68</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -5627,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I61" s="28">
         <v>2019</v>
@@ -5638,10 +5642,10 @@
         <v>69</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -5653,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I62" s="28">
         <v>2019</v>
@@ -5664,10 +5668,10 @@
         <v>70</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -5679,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I63" s="28">
         <v>2019</v>
@@ -5690,10 +5694,10 @@
         <v>71</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -5705,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I64" s="28">
         <v>2019</v>
@@ -5716,10 +5720,10 @@
         <v>72</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -5731,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I65" s="28">
         <v>2019</v>
@@ -5742,10 +5746,10 @@
         <v>73</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -5754,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I66" s="28">
         <v>2019</v>
@@ -5765,10 +5769,10 @@
         <v>29</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D67" s="3">
         <v>2</v>
@@ -5784,7 +5788,7 @@
         <v>60</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I67" s="28">
         <v>2019</v>
@@ -5795,10 +5799,10 @@
         <v>35</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -5810,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I68" s="28">
         <v>2019</v>
@@ -5821,10 +5825,10 @@
         <v>51</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
@@ -5840,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I69" s="28">
         <v>2019</v>
@@ -5851,10 +5855,10 @@
         <v>53</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D70" s="3">
         <v>14</v>
@@ -5870,7 +5874,7 @@
         <v>2380</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I70" s="28">
         <v>2019</v>
@@ -5881,17 +5885,17 @@
         <v>42</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I71" s="28">
         <v>2019</v>
@@ -5902,10 +5906,10 @@
         <v>43</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D72">
         <v>158553</v>
@@ -5918,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I72" s="28">
         <v>2019</v>
@@ -5939,9 +5943,1957 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BBE6F3-4A5E-5E4C-80AB-257483E97F08}">
+  <dimension ref="A1:I72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="3"/>
+      <c r="F2">
+        <v>135</v>
+      </c>
+      <c r="G2" t="e">
+        <f>#REF!*F2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="3"/>
+      <c r="F3">
+        <v>237</v>
+      </c>
+      <c r="G3" t="e">
+        <f>#REF!*F3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="3">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>91</v>
+      </c>
+      <c r="G4" t="e">
+        <f>#REF!*F4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="3"/>
+      <c r="F5">
+        <v>344</v>
+      </c>
+      <c r="G5" t="e">
+        <f>#REF!*F5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="3"/>
+      <c r="F6">
+        <v>130</v>
+      </c>
+      <c r="G6" t="e">
+        <f>#REF!*F6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="3"/>
+      <c r="F7">
+        <v>244</v>
+      </c>
+      <c r="G7" t="e">
+        <f>#REF!*F7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>88</v>
+      </c>
+      <c r="G8" t="e">
+        <f>#REF!*F8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="3"/>
+      <c r="F9">
+        <v>57</v>
+      </c>
+      <c r="G9" t="e">
+        <f>#REF!*F9</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="27">
+        <v>63</v>
+      </c>
+      <c r="G10" t="e">
+        <f>#REF!*F10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="27">
+        <v>50</v>
+      </c>
+      <c r="G11" t="e">
+        <f>#REF!*F11</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="3"/>
+      <c r="F12">
+        <v>223</v>
+      </c>
+      <c r="G12" t="e">
+        <f>#REF!*F12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="25">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3">
+        <v>84</v>
+      </c>
+      <c r="F13">
+        <v>61</v>
+      </c>
+      <c r="G13" t="e">
+        <f>#REF!*F13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="25">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3">
+        <v>53</v>
+      </c>
+      <c r="F14">
+        <v>104</v>
+      </c>
+      <c r="G14" t="e">
+        <f>#REF!*F14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14">
+      <c r="A15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>49</v>
+      </c>
+      <c r="G15" t="e">
+        <f>#REF!*F15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="3"/>
+      <c r="G16" t="e">
+        <f>#REF!*F16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="25">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>232</v>
+      </c>
+      <c r="F17">
+        <v>70</v>
+      </c>
+      <c r="G17" t="e">
+        <f>#REF!*F17</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="25">
+        <v>31</v>
+      </c>
+      <c r="E18" s="3">
+        <v>155</v>
+      </c>
+      <c r="F18">
+        <v>49</v>
+      </c>
+      <c r="G18" t="e">
+        <f>#REF!*F18</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="3"/>
+      <c r="F19">
+        <v>49</v>
+      </c>
+      <c r="G19" t="e">
+        <f>#REF!*F19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="3"/>
+      <c r="F20">
+        <v>399</v>
+      </c>
+      <c r="G20" t="e">
+        <f>#REF!*F20</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14">
+      <c r="A21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="3">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>619</v>
+      </c>
+      <c r="G21" t="e">
+        <f>#REF!*F21</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="3"/>
+      <c r="G22" t="e">
+        <f>#REF!*F22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="3">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>638</v>
+      </c>
+      <c r="G23" t="e">
+        <f>#REF!*F23</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="3">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>68</v>
+      </c>
+      <c r="G24" t="e">
+        <f>#REF!*F24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="25">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>240</v>
+      </c>
+      <c r="G25" t="e">
+        <f>#REF!*F25</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="25">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>480</v>
+      </c>
+      <c r="G26" t="e">
+        <f>#REF!*F26</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="3"/>
+      <c r="F27">
+        <v>830</v>
+      </c>
+      <c r="G27" t="e">
+        <f>#REF!*F27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="3"/>
+      <c r="F28">
+        <v>430</v>
+      </c>
+      <c r="G28" t="e">
+        <f>#REF!*F28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>360</v>
+      </c>
+      <c r="G29" t="e">
+        <f>#REF!*F29</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14">
+      <c r="A30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="3">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>269</v>
+      </c>
+      <c r="G30" t="e">
+        <f>#REF!*F30</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="3">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>633</v>
+      </c>
+      <c r="G31" t="e">
+        <f>#REF!*F31</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14">
+      <c r="A32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="3">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>789</v>
+      </c>
+      <c r="G32" t="e">
+        <f>#REF!*F32</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14">
+      <c r="A33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="3"/>
+      <c r="F33">
+        <v>865</v>
+      </c>
+      <c r="G33" t="e">
+        <f>#REF!*F33</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="3"/>
+      <c r="F34">
+        <v>863</v>
+      </c>
+      <c r="G34" t="e">
+        <f>#REF!*F34</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="3"/>
+      <c r="G35" t="e">
+        <f>#REF!*F35</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1136</v>
+      </c>
+      <c r="G36" t="e">
+        <f>#REF!*F36</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="25">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1367</v>
+      </c>
+      <c r="G37" t="e">
+        <f>#REF!*F37</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>955</v>
+      </c>
+      <c r="G38" t="e">
+        <f>#REF!*F38</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="3">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>168</v>
+      </c>
+      <c r="G39" t="e">
+        <f>#REF!*F39</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="3"/>
+      <c r="F40">
+        <v>1287</v>
+      </c>
+      <c r="G40" t="e">
+        <f>#REF!*F40</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="25"/>
+      <c r="E41" s="3"/>
+      <c r="F41">
+        <v>1358</v>
+      </c>
+      <c r="G41" t="e">
+        <f>#REF!*F41</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I41" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14">
+      <c r="A42" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1270</v>
+      </c>
+      <c r="G42" t="e">
+        <f>#REF!*F42</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14">
+      <c r="A43" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1184</v>
+      </c>
+      <c r="G43" t="e">
+        <f>#REF!*F43</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I43" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14">
+      <c r="A44" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="25">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>755</v>
+      </c>
+      <c r="G44" t="e">
+        <f>#REF!*F44</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I44" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="3"/>
+      <c r="G45" t="e">
+        <f>#REF!*F45</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="3"/>
+      <c r="G46" t="e">
+        <f>#REF!*F46</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I46" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="25">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>984</v>
+      </c>
+      <c r="G47" t="e">
+        <f>#REF!*F47</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>157</v>
+      </c>
+      <c r="G48" t="e">
+        <f>#REF!*F48</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I48" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>223</v>
+      </c>
+      <c r="G49" t="e">
+        <f>#REF!*F49</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I49" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="3"/>
+      <c r="G50" t="e">
+        <f>#REF!*F50</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I50" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="3">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>484</v>
+      </c>
+      <c r="G51" t="e">
+        <f>#REF!*F51</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I51" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="27"/>
+      <c r="G52" t="e">
+        <f>#REF!*F52</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I52" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="3">
+        <v>15</v>
+      </c>
+      <c r="F53">
+        <v>769</v>
+      </c>
+      <c r="G53" t="e">
+        <f>#REF!*F53</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="27"/>
+      <c r="G54" t="e">
+        <f>#REF!*F54</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>155</v>
+      </c>
+      <c r="G55" t="e">
+        <f>#REF!*F55</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="27"/>
+      <c r="G56" t="e">
+        <f>#REF!*F56</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14">
+      <c r="A57" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="3"/>
+      <c r="F57">
+        <v>98</v>
+      </c>
+      <c r="G57" t="e">
+        <f>#REF!*F57</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I57" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="14">
+      <c r="A58" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="3"/>
+      <c r="F58">
+        <v>59</v>
+      </c>
+      <c r="G58" t="e">
+        <f>#REF!*F58</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I58" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14">
+      <c r="A59" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="27">
+        <v>112</v>
+      </c>
+      <c r="G59" t="e">
+        <f>#REF!*F59</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I59" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14">
+      <c r="A60" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="27">
+        <v>225</v>
+      </c>
+      <c r="G60" t="e">
+        <f>#REF!*F60</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14">
+      <c r="A61" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="27">
+        <v>80</v>
+      </c>
+      <c r="G61" t="e">
+        <f>#REF!*F61</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I61" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="25"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="27">
+        <v>80</v>
+      </c>
+      <c r="G62" t="e">
+        <f>#REF!*F62</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I62" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="14">
+      <c r="A63" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="25"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="27">
+        <v>80</v>
+      </c>
+      <c r="G63" t="e">
+        <f>#REF!*F63</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I63" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14">
+      <c r="A64" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="25"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="27">
+        <v>125</v>
+      </c>
+      <c r="G64" t="e">
+        <f>#REF!*F64</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H64" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I64" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="14">
+      <c r="A65" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="25"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="27">
+        <v>127</v>
+      </c>
+      <c r="G65" t="e">
+        <f>#REF!*F65</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I65" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14">
+      <c r="A66" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="25"/>
+      <c r="E66" s="3"/>
+      <c r="G66" t="e">
+        <f>#REF!*F66</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H66" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I66" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" s="25"/>
+      <c r="E67" s="3">
+        <v>4</v>
+      </c>
+      <c r="F67" s="27">
+        <v>30</v>
+      </c>
+      <c r="G67" t="e">
+        <f>#REF!*F67</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I67" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="25"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="27">
+        <v>345</v>
+      </c>
+      <c r="G68" t="e">
+        <f>#REF!*F68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I68" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" s="25"/>
+      <c r="E69" s="3">
+        <v>10</v>
+      </c>
+      <c r="F69">
+        <v>48</v>
+      </c>
+      <c r="G69" t="e">
+        <f>#REF!*F69</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I69" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14">
+      <c r="A70" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70" s="25"/>
+      <c r="E70" s="3">
+        <v>20</v>
+      </c>
+      <c r="F70">
+        <v>170</v>
+      </c>
+      <c r="G70" t="e">
+        <f>#REF!*F70</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H70" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I70" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="25"/>
+      <c r="G71" t="e">
+        <f>#REF!*F71</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I71" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="25"/>
+      <c r="E72">
+        <v>92798</v>
+      </c>
+      <c r="G72" t="e">
+        <f>#REF!*F72</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H72" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I72" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B71E2C1-B45E-0E4A-804A-0318581059A8}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -5952,13 +7904,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>61</v>
@@ -5967,16 +7919,16 @@
         <v>62</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="26" t="s">
-        <v>79</v>
-      </c>
       <c r="H1" s="26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5984,22 +7936,26 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
       <c r="F2">
         <v>135</v>
       </c>
       <c r="G2">
-        <f>D2*F2</f>
+        <f>F2*D2</f>
         <v>0</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I2" s="28">
         <v>2019</v>
@@ -6010,22 +7966,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
       <c r="F3">
         <v>237</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">D3*F3</f>
+        <f t="shared" ref="G3:G66" si="0">F3*D3</f>
         <v>0</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I3" s="28">
         <v>2019</v>
@@ -6036,7 +7996,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>83</v>
@@ -6045,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>91</v>
@@ -6055,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I4" s="28">
         <v>2019</v>
@@ -6066,13 +8026,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
       <c r="F5">
         <v>344</v>
       </c>
@@ -6081,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I5" s="28">
         <v>2019</v>
@@ -6092,13 +8056,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
       <c r="F6">
         <v>130</v>
       </c>
@@ -6107,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I6" s="28">
         <v>2019</v>
@@ -6118,13 +8086,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
       <c r="F7">
         <v>244</v>
       </c>
@@ -6133,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I7" s="28">
         <v>2019</v>
@@ -6144,7 +8116,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>83</v>
@@ -6153,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>88</v>
@@ -6163,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I8" s="28">
         <v>2019</v>
@@ -6174,13 +8146,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
       <c r="F9">
         <v>57</v>
       </c>
@@ -6189,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I9" s="28">
         <v>2019</v>
@@ -6200,13 +8176,17 @@
         <v>30</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
       <c r="F10" s="27">
         <v>63</v>
       </c>
@@ -6215,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I10" s="28">
         <v>2019</v>
@@ -6226,13 +8206,17 @@
         <v>54</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
       <c r="F11" s="27">
         <v>50</v>
       </c>
@@ -6241,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I11" s="28">
         <v>2019</v>
@@ -6252,13 +8236,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
       <c r="F12">
         <v>223</v>
       </c>
@@ -6267,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I12" s="28">
         <v>2019</v>
@@ -6278,26 +8266,26 @@
         <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>61</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>2562</v>
+        <v>0</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I13" s="28">
         <v>2019</v>
@@ -6308,26 +8296,26 @@
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>83</v>
       </c>
       <c r="D14" s="3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>104</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>4472</v>
+        <v>0</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I14" s="28">
         <v>2019</v>
@@ -6338,7 +8326,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>83</v>
@@ -6347,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>49</v>
@@ -6357,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I15" s="28">
         <v>2019</v>
@@ -6368,19 +8356,23 @@
         <v>31</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
       <c r="G16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I16" s="28">
         <v>2019</v>
@@ -6391,26 +8383,26 @@
         <v>32</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>83</v>
       </c>
       <c r="D17" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>70</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I17" s="28">
         <v>2019</v>
@@ -6421,26 +8413,26 @@
         <v>44</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>83</v>
       </c>
       <c r="D18" s="3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>49</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>1519</v>
+        <v>0</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I18" s="28">
         <v>2019</v>
@@ -6451,13 +8443,17 @@
         <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
       <c r="F19">
         <v>49</v>
       </c>
@@ -6466,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I19" s="28">
         <v>2019</v>
@@ -6477,13 +8473,17 @@
         <v>45</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
       <c r="F20">
         <v>399</v>
       </c>
@@ -6492,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I20" s="28">
         <v>2019</v>
@@ -6503,7 +8503,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>83</v>
@@ -6512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>619</v>
@@ -6522,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I21" s="28">
         <v>2019</v>
@@ -6533,19 +8533,23 @@
         <v>46</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
       <c r="G22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I22" s="28">
         <v>2019</v>
@@ -6556,7 +8560,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>83</v>
@@ -6565,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>638</v>
@@ -6575,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I23" s="28">
         <v>2019</v>
@@ -6586,7 +8590,7 @@
         <v>52</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>83</v>
@@ -6595,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>68</v>
@@ -6605,7 +8609,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I24" s="28">
         <v>2019</v>
@@ -6616,26 +8620,26 @@
         <v>12</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>83</v>
       </c>
       <c r="D25" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>240</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I25" s="28">
         <v>2019</v>
@@ -6646,26 +8650,26 @@
         <v>13</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>83</v>
       </c>
       <c r="D26" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>480</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I26" s="28">
         <v>2019</v>
@@ -6676,13 +8680,17 @@
         <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
       <c r="F27">
         <v>830</v>
       </c>
@@ -6691,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I27" s="28">
         <v>2019</v>
@@ -6702,13 +8710,17 @@
         <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
       <c r="F28">
         <v>430</v>
       </c>
@@ -6717,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I28" s="28">
         <v>2019</v>
@@ -6728,7 +8740,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>83</v>
@@ -6737,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>360</v>
@@ -6747,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I29" s="28">
         <v>2019</v>
@@ -6758,7 +8770,7 @@
         <v>57</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>83</v>
@@ -6767,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>269</v>
@@ -6777,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I30" s="28">
         <v>2019</v>
@@ -6788,7 +8800,7 @@
         <v>60</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>83</v>
@@ -6797,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>633</v>
@@ -6807,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I31" s="28">
         <v>2019</v>
@@ -6818,7 +8830,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>83</v>
@@ -6827,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>789</v>
@@ -6837,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I32" s="28">
         <v>2019</v>
@@ -6848,13 +8860,17 @@
         <v>59</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
       <c r="F33">
         <v>865</v>
       </c>
@@ -6863,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I33" s="28">
         <v>2019</v>
@@ -6874,13 +8890,17 @@
         <v>14</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
       <c r="F34">
         <v>863</v>
       </c>
@@ -6889,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I34" s="28">
         <v>2019</v>
@@ -6900,19 +8920,23 @@
         <v>36</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
       <c r="G35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I35" s="28">
         <v>2019</v>
@@ -6923,7 +8947,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>83</v>
@@ -6932,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>1136</v>
@@ -6942,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I36" s="28">
         <v>2019</v>
@@ -6953,26 +8977,26 @@
         <v>16</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>83</v>
       </c>
       <c r="D37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>1367</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>1367</v>
+        <v>0</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I37" s="28">
         <v>2019</v>
@@ -6983,7 +9007,7 @@
         <v>17</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>83</v>
@@ -7002,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I38" s="28">
         <v>2019</v>
@@ -7013,7 +9037,7 @@
         <v>24</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>83</v>
@@ -7022,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>168</v>
@@ -7032,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I39" s="28">
         <v>2019</v>
@@ -7043,13 +9067,17 @@
         <v>18</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
       <c r="F40">
         <v>1287</v>
       </c>
@@ -7058,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I40" s="28">
         <v>2019</v>
@@ -7069,13 +9097,17 @@
         <v>19</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
       <c r="F41">
         <v>1358</v>
       </c>
@@ -7084,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I41" s="28">
         <v>2019</v>
@@ -7095,7 +9127,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>83</v>
@@ -7104,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>1270</v>
@@ -7114,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I42" s="28">
         <v>2019</v>
@@ -7125,7 +9157,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="25" t="s">
         <v>83</v>
@@ -7134,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>1184</v>
@@ -7144,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I43" s="28">
         <v>2019</v>
@@ -7155,26 +9187,26 @@
         <v>50</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="25" t="s">
         <v>83</v>
       </c>
       <c r="D44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>755</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>755</v>
+        <v>0</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I44" s="28">
         <v>2019</v>
@@ -7185,19 +9217,23 @@
         <v>37</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
       <c r="G45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I45" s="28">
         <v>2019</v>
@@ -7208,19 +9244,23 @@
         <v>47</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
       <c r="G46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I46" s="28">
         <v>2019</v>
@@ -7231,26 +9271,26 @@
         <v>20</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="25" t="s">
         <v>83</v>
       </c>
       <c r="D47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>984</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I47" s="28">
         <v>2019</v>
@@ -7261,7 +9301,7 @@
         <v>21</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>83</v>
@@ -7270,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>157</v>
@@ -7280,7 +9320,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="28">
         <v>2019</v>
@@ -7291,7 +9331,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>83</v>
@@ -7310,7 +9350,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I49" s="28">
         <v>2019</v>
@@ -7321,19 +9361,23 @@
         <v>38</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
       <c r="G50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I50" s="28">
         <v>2019</v>
@@ -7344,7 +9388,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="25" t="s">
         <v>83</v>
@@ -7353,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>484</v>
@@ -7363,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I51" s="28">
         <v>2019</v>
@@ -7374,20 +9418,24 @@
         <v>39</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
       <c r="F52" s="27"/>
       <c r="G52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I52" s="28">
         <v>2019</v>
@@ -7398,7 +9446,7 @@
         <v>25</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="25" t="s">
         <v>83</v>
@@ -7407,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>769</v>
@@ -7417,7 +9465,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I53" s="28">
         <v>2019</v>
@@ -7428,22 +9476,24 @@
         <v>41</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" s="3"/>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
       <c r="F54" s="27"/>
-      <c r="G54" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I54" s="28">
         <v>2019</v>
@@ -7454,7 +9504,7 @@
         <v>26</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="25" t="s">
         <v>83</v>
@@ -7473,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I55" s="28">
         <v>2019</v>
@@ -7484,20 +9534,24 @@
         <v>40</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
       <c r="F56" s="27"/>
       <c r="G56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I56" s="28">
         <v>2019</v>
@@ -7508,13 +9562,17 @@
         <v>64</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
       <c r="F57">
         <v>98</v>
       </c>
@@ -7523,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I57" s="28">
         <v>2019</v>
@@ -7534,13 +9592,17 @@
         <v>65</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
       <c r="F58">
         <v>59</v>
       </c>
@@ -7549,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I58" s="28">
         <v>2019</v>
@@ -7560,13 +9622,17 @@
         <v>66</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
       <c r="F59" s="27">
         <v>112</v>
       </c>
@@ -7575,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I59" s="28">
         <v>2019</v>
@@ -7586,13 +9652,17 @@
         <v>67</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
       <c r="F60" s="27">
         <v>225</v>
       </c>
@@ -7601,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I60" s="28">
         <v>2019</v>
@@ -7612,13 +9682,17 @@
         <v>68</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
       <c r="F61" s="27">
         <v>80</v>
       </c>
@@ -7627,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I61" s="28">
         <v>2019</v>
@@ -7638,13 +9712,17 @@
         <v>69</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
       <c r="F62" s="27">
         <v>80</v>
       </c>
@@ -7653,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I62" s="28">
         <v>2019</v>
@@ -7664,13 +9742,17 @@
         <v>70</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
       <c r="F63" s="27">
         <v>80</v>
       </c>
@@ -7679,7 +9761,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I63" s="28">
         <v>2019</v>
@@ -7690,13 +9772,17 @@
         <v>71</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
       <c r="F64" s="27">
         <v>125</v>
       </c>
@@ -7705,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I64" s="28">
         <v>2019</v>
@@ -7716,13 +9802,17 @@
         <v>72</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
       <c r="F65" s="27">
         <v>127</v>
       </c>
@@ -7731,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I65" s="28">
         <v>2019</v>
@@ -7742,19 +9832,23 @@
         <v>73</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
       <c r="G66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I66" s="28">
         <v>2019</v>
@@ -7765,7 +9859,7 @@
         <v>29</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="25" t="s">
         <v>83</v>
@@ -7774,17 +9868,17 @@
         <v>0</v>
       </c>
       <c r="E67" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F67" s="27">
         <v>30</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G72" si="1">D67*F67</f>
+        <f t="shared" ref="G67:G72" si="1">F67*D67</f>
         <v>0</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I67" s="28">
         <v>2019</v>
@@ -7795,13 +9889,17 @@
         <v>35</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
       <c r="F68" s="27">
         <v>345</v>
       </c>
@@ -7810,7 +9908,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I68" s="28">
         <v>2019</v>
@@ -7821,7 +9919,7 @@
         <v>51</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="25" t="s">
         <v>83</v>
@@ -7830,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>48</v>
@@ -7840,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I69" s="28">
         <v>2019</v>
@@ -7851,7 +9949,7 @@
         <v>53</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="25" t="s">
         <v>83</v>
@@ -7860,7 +9958,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>170</v>
@@ -7870,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I70" s="28">
         <v>2019</v>
@@ -7881,2156 +9979,10 @@
         <v>42</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="25" t="s">
         <v>83</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I71" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72">
-        <v>20000</v>
-      </c>
-      <c r="E72">
-        <v>92798</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I72" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="D73" s="3">
-        <v>16097</v>
-      </c>
-      <c r="E73" s="3">
-        <v>48832</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B71E2C1-B45E-0E4A-804A-0318581059A8}">
-  <dimension ref="A1:I73"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>135</v>
-      </c>
-      <c r="G2">
-        <f>F2*D2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>237</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">F3*D3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>91</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>344</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>130</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>244</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>88</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>57</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="27">
-        <v>63</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="27">
-        <v>50</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>223</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>61</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>104</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14">
-      <c r="A15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>49</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>70</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>49</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>49</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>399</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14">
-      <c r="A21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>619</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>638</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I23" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>68</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>240</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>480</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>830</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I27" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>430</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I28" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>360</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14">
-      <c r="A30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>269</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I30" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>633</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I31" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="14">
-      <c r="A32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>789</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I32" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="14">
-      <c r="A33" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>865</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I33" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>863</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I35" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1136</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I36" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1367</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I37" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>955</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I38" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>168</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I39" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1287</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I40" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1358</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I41" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="14">
-      <c r="A42" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1270</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I42" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="14">
-      <c r="A43" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1184</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I43" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="14">
-      <c r="A44" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>755</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I44" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I45" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I46" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>984</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I47" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>157</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I48" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>223</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I49" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I50" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>484</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I51" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="27"/>
-      <c r="G52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I52" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>769</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I53" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="27"/>
-      <c r="G54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I54" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="3">
-        <v>0</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>155</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I55" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="27"/>
-      <c r="G56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I56" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="14">
-      <c r="A57" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>98</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I57" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="14">
-      <c r="A58" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>59</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I58" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="14">
-      <c r="A59" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="27">
-        <v>112</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I59" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="14">
-      <c r="A60" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="27">
-        <v>225</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I60" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="14">
-      <c r="A61" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" s="3">
-        <v>0</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="27">
-        <v>80</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I61" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="27">
-        <v>80</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I62" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="14">
-      <c r="A63" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D63" s="3">
-        <v>0</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="27">
-        <v>80</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I63" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="14">
-      <c r="A64" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D64" s="3">
-        <v>0</v>
-      </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-      <c r="F64" s="27">
-        <v>125</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I64" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="14">
-      <c r="A65" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0</v>
-      </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="27">
-        <v>127</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I65" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="14">
-      <c r="A66" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I66" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="3">
-        <v>0</v>
-      </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-      <c r="F67" s="27">
-        <v>30</v>
-      </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G72" si="1">F67*D67</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I67" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" s="3">
-        <v>0</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="27">
-        <v>345</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I68" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>48</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I69" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="14">
-      <c r="A70" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" s="3">
-        <v>0</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>170</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I70" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>85</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -10039,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I71" s="28">
         <v>2019</v>
@@ -10050,10 +10002,10 @@
         <v>43</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -10062,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I72" s="28">
         <v>2019</v>
